--- a/Code/Results/Cases/Case_7_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.729194501193717</v>
+        <v>1.865345274680095</v>
       </c>
       <c r="C2">
-        <v>0.4687714431618701</v>
+        <v>0.1064454161360828</v>
       </c>
       <c r="D2">
-        <v>0.06374777785020669</v>
+        <v>0.0798451295203062</v>
       </c>
       <c r="E2">
-        <v>0.02399851952126042</v>
+        <v>0.04699610546238731</v>
       </c>
       <c r="F2">
-        <v>2.428589545802268</v>
+        <v>2.009122972597567</v>
       </c>
       <c r="G2">
-        <v>0.0008050243848917391</v>
+        <v>0.0008363598586300872</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.878750719907984</v>
+        <v>1.602788835596613</v>
       </c>
       <c r="L2">
-        <v>0.3344913190657337</v>
+        <v>0.2733962761121091</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.436104954339839</v>
+        <v>2.125088679374898</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.24489825773702</v>
+        <v>1.641316148629755</v>
       </c>
       <c r="C3">
-        <v>0.404075030890624</v>
+        <v>0.09331858757910538</v>
       </c>
       <c r="D3">
-        <v>0.0651463456137833</v>
+        <v>0.0821398357733214</v>
       </c>
       <c r="E3">
-        <v>0.02335641897871366</v>
+        <v>0.04351570711505026</v>
       </c>
       <c r="F3">
-        <v>2.204699836324664</v>
+        <v>1.876333369859381</v>
       </c>
       <c r="G3">
-        <v>0.0008142954857124315</v>
+        <v>0.000843445896808294</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7603630415087252</v>
+        <v>1.397731903591733</v>
       </c>
       <c r="L3">
-        <v>0.2936849079388537</v>
+        <v>0.2417213087259142</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.452779627271141</v>
+        <v>2.121662903281575</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.953682142498508</v>
+        <v>1.506274738596034</v>
       </c>
       <c r="C4">
-        <v>0.3649556838210799</v>
+        <v>0.08532923791022995</v>
       </c>
       <c r="D4">
-        <v>0.06610959022759033</v>
+        <v>0.08356921116745042</v>
       </c>
       <c r="E4">
-        <v>0.02299459617091859</v>
+        <v>0.04144448076255891</v>
       </c>
       <c r="F4">
-        <v>2.072439138956184</v>
+        <v>1.797853197283047</v>
       </c>
       <c r="G4">
-        <v>0.0008201317766659968</v>
+        <v>0.0008479245258336007</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6890800135564135</v>
+        <v>1.273907614455567</v>
       </c>
       <c r="L4">
-        <v>0.2692235219107175</v>
+        <v>0.2226641327520582</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.465185683215495</v>
+        <v>2.121638696598609</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.836358996860838</v>
+        <v>1.451810678933526</v>
       </c>
       <c r="C5">
-        <v>0.3491403520209246</v>
+        <v>0.08208740591838648</v>
       </c>
       <c r="D5">
-        <v>0.06652666035191501</v>
+        <v>0.08415689038181107</v>
       </c>
       <c r="E5">
-        <v>0.02285483030947866</v>
+        <v>0.04061577872829147</v>
       </c>
       <c r="F5">
-        <v>2.019717910014165</v>
+        <v>1.766580620047165</v>
       </c>
       <c r="G5">
-        <v>0.0008225482652884796</v>
+        <v>0.0008497827917087042</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6603380424700376</v>
+        <v>1.223911937006562</v>
       </c>
       <c r="L5">
-        <v>0.2593871640500254</v>
+        <v>0.2149867239031948</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.470751242147699</v>
+        <v>2.122124875408474</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.816953725224664</v>
+        <v>1.442799343154007</v>
       </c>
       <c r="C6">
-        <v>0.3465211335719971</v>
+        <v>0.08154983407536065</v>
       </c>
       <c r="D6">
-        <v>0.06659734917658611</v>
+        <v>0.08425478993823798</v>
       </c>
       <c r="E6">
-        <v>0.02283207301920509</v>
+        <v>0.04047906647824107</v>
       </c>
       <c r="F6">
-        <v>2.011030939106746</v>
+        <v>1.761428991452618</v>
       </c>
       <c r="G6">
-        <v>0.0008229518809443311</v>
+        <v>0.0008500933894806166</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6555826604476067</v>
+        <v>1.215636536323501</v>
       </c>
       <c r="L6">
-        <v>0.2577613258153093</v>
+        <v>0.2137169684070415</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.471705234818657</v>
+        <v>2.122234818134473</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.952094661570925</v>
+        <v>1.505538007195099</v>
       </c>
       <c r="C7">
-        <v>0.3647419145631545</v>
+        <v>0.08528546606295606</v>
       </c>
       <c r="D7">
-        <v>0.06611511778929824</v>
+        <v>0.08357711568316795</v>
       </c>
       <c r="E7">
-        <v>0.02299268074231531</v>
+        <v>0.04143324400727444</v>
       </c>
       <c r="F7">
-        <v>2.07172352813825</v>
+        <v>1.797428649713567</v>
       </c>
       <c r="G7">
-        <v>0.0008201642092756632</v>
+        <v>0.0008479494513576726</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6886912081855101</v>
+        <v>1.273231553455133</v>
       </c>
       <c r="L7">
-        <v>0.2690903534685276</v>
+        <v>0.222560246560306</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.465258721433685</v>
+        <v>2.121643278909502</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.560810838697137</v>
+        <v>1.787537354748792</v>
       </c>
       <c r="C8">
-        <v>0.4463222818964425</v>
+        <v>0.1019022218921748</v>
       </c>
       <c r="D8">
-        <v>0.06420720396599933</v>
+        <v>0.08063214309973255</v>
       </c>
       <c r="E8">
-        <v>0.02377009347905279</v>
+        <v>0.04578167130013711</v>
       </c>
       <c r="F8">
-        <v>2.350227010918076</v>
+        <v>1.962666536995897</v>
       </c>
       <c r="G8">
-        <v>0.0008081924700490797</v>
+        <v>0.0008387772646260006</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8376085370341428</v>
+        <v>1.531615854610152</v>
       </c>
       <c r="L8">
-        <v>0.3202869652803884</v>
+        <v>0.2623873453690209</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.441382305939442</v>
+        <v>2.123459171108593</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.813114769292952</v>
+        <v>2.363719940771659</v>
       </c>
       <c r="C9">
-        <v>0.6124119128350287</v>
+        <v>0.1352389555873685</v>
       </c>
       <c r="D9">
-        <v>0.06138442277773137</v>
+        <v>0.07501645945081137</v>
       </c>
       <c r="E9">
-        <v>0.02557575603221984</v>
+        <v>0.05488941271216419</v>
       </c>
       <c r="F9">
-        <v>2.944444379493802</v>
+        <v>2.313831950128332</v>
       </c>
       <c r="G9">
-        <v>0.0007857568329684468</v>
+        <v>0.0008217526743267566</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.143205426449853</v>
+        <v>2.0577722782065</v>
       </c>
       <c r="L9">
-        <v>0.4262788013240737</v>
+        <v>0.3440805343368112</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.413530392760109</v>
+        <v>2.144836782664228</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.784547103323689</v>
+        <v>2.806153074698784</v>
       </c>
       <c r="C10">
-        <v>0.7402561787298509</v>
+        <v>0.1604854151481874</v>
       </c>
       <c r="D10">
-        <v>0.06001485004320983</v>
+        <v>0.07098478936223174</v>
       </c>
       <c r="E10">
-        <v>0.02711126357187332</v>
+        <v>0.06202467544066437</v>
       </c>
       <c r="F10">
-        <v>3.42100028226028</v>
+        <v>2.592837923269713</v>
       </c>
       <c r="G10">
-        <v>0.0007697505294414157</v>
+        <v>0.0008097524042298499</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.379811133843091</v>
+        <v>2.460742657301779</v>
       </c>
       <c r="L10">
-        <v>0.5089588473151139</v>
+        <v>0.407037768535929</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.407433373134324</v>
+        <v>2.173427140002417</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.241735351906812</v>
+        <v>3.012823725436647</v>
       </c>
       <c r="C11">
-        <v>0.800232908357458</v>
+        <v>0.1722092510287041</v>
       </c>
       <c r="D11">
-        <v>0.05958391166070953</v>
+        <v>0.0691707928562888</v>
       </c>
       <c r="E11">
-        <v>0.02786491202797947</v>
+        <v>0.06538944849986095</v>
       </c>
       <c r="F11">
-        <v>3.649286578855168</v>
+        <v>2.725444128745124</v>
       </c>
       <c r="G11">
-        <v>0.000762531472831329</v>
+        <v>0.000804383930169388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.491075186435964</v>
+        <v>2.648763245045188</v>
       </c>
       <c r="L11">
-        <v>0.5479821579780406</v>
+        <v>0.4365032816816381</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.408519118036168</v>
+        <v>2.189740305347982</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.417459516059807</v>
+        <v>3.091978142303901</v>
       </c>
       <c r="C12">
-        <v>0.8232607783304502</v>
+        <v>0.1766902008052966</v>
       </c>
       <c r="D12">
-        <v>0.0594523175275441</v>
+        <v>0.06848677047050167</v>
       </c>
       <c r="E12">
-        <v>0.028159174938164</v>
+        <v>0.06668277933161804</v>
       </c>
       <c r="F12">
-        <v>3.737661555152215</v>
+        <v>2.776580856121114</v>
       </c>
       <c r="G12">
-        <v>0.0007598027770448321</v>
+        <v>0.0008023622457412778</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.53382832408235</v>
+        <v>2.72074489789739</v>
       </c>
       <c r="L12">
-        <v>0.562998048196576</v>
+        <v>0.4477973013797225</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.409558477285088</v>
+        <v>2.196441325595259</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.379491664932402</v>
+        <v>3.074889144063945</v>
       </c>
       <c r="C13">
-        <v>0.8182863053883125</v>
+        <v>0.175723186940445</v>
       </c>
       <c r="D13">
-        <v>0.05947918297998456</v>
+        <v>0.068633957418891</v>
       </c>
       <c r="E13">
-        <v>0.02809538907733078</v>
+        <v>0.0664033498175165</v>
       </c>
       <c r="F13">
-        <v>3.718537864592662</v>
+        <v>2.765524874878821</v>
       </c>
       <c r="G13">
-        <v>0.0007603902970223547</v>
+        <v>0.0008027971820536508</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.524591387860781</v>
+        <v>2.70520576192672</v>
       </c>
       <c r="L13">
-        <v>0.5597528717112539</v>
+        <v>0.4453585847015376</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.409305405621978</v>
+        <v>2.194974032048322</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.256137735662833</v>
+        <v>3.019317209095675</v>
       </c>
       <c r="C14">
-        <v>0.8021207511465605</v>
+        <v>0.1725770289235271</v>
       </c>
       <c r="D14">
-        <v>0.05957242698190868</v>
+        <v>0.06911445962465379</v>
       </c>
       <c r="E14">
-        <v>0.02788893751245247</v>
+        <v>0.06549545491334641</v>
       </c>
       <c r="F14">
-        <v>3.656516884295684</v>
+        <v>2.729632069562825</v>
       </c>
       <c r="G14">
-        <v>0.0007623069057805886</v>
+        <v>0.0008042173905115482</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.494579477679636</v>
+        <v>2.654668894175416</v>
       </c>
       <c r="L14">
-        <v>0.5492125195119257</v>
+        <v>0.4374296146327197</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.408591576907284</v>
+        <v>2.190280814735843</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.180930964582387</v>
+        <v>2.985397694434539</v>
       </c>
       <c r="C15">
-        <v>0.7922617875927358</v>
+        <v>0.1706555281234756</v>
       </c>
       <c r="D15">
-        <v>0.05963378538068298</v>
+        <v>0.06940915961189376</v>
       </c>
       <c r="E15">
-        <v>0.02776366571740141</v>
+        <v>0.06494190384859877</v>
       </c>
       <c r="F15">
-        <v>3.618787157235744</v>
+        <v>2.707770000512085</v>
       </c>
       <c r="G15">
-        <v>0.0007634814085851888</v>
+        <v>0.0008050887172251575</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.476280189752671</v>
+        <v>2.623818814463448</v>
       </c>
       <c r="L15">
-        <v>0.5427884693474567</v>
+        <v>0.4325911572395</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.408238511898958</v>
+        <v>2.187475785768129</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.755009085980078</v>
+        <v>2.792765019561671</v>
       </c>
       <c r="C16">
-        <v>0.7363776330001883</v>
+        <v>0.159724626681367</v>
       </c>
       <c r="D16">
-        <v>0.06004720261007179</v>
+        <v>0.07110374232833117</v>
       </c>
       <c r="E16">
-        <v>0.02706319812673286</v>
+        <v>0.06180734403000798</v>
       </c>
       <c r="F16">
-        <v>3.406335168197899</v>
+        <v>2.584294838715977</v>
       </c>
       <c r="G16">
-        <v>0.0007702232401041179</v>
+        <v>0.000810104920286692</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.37262086019949</v>
+        <v>2.448558545754452</v>
       </c>
       <c r="L16">
-        <v>0.5064399174495833</v>
+        <v>0.4051301849839177</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.407446090760502</v>
+        <v>2.17243156930688</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.497899698268782</v>
+        <v>2.676053885171939</v>
       </c>
       <c r="C17">
-        <v>0.7025967177999632</v>
+        <v>0.1530848459240559</v>
       </c>
       <c r="D17">
-        <v>0.06035264108349736</v>
+        <v>0.07214844909002238</v>
       </c>
       <c r="E17">
-        <v>0.02664823770609281</v>
+        <v>0.05991625132719136</v>
       </c>
       <c r="F17">
-        <v>3.279130772043914</v>
+        <v>2.510073495702827</v>
       </c>
       <c r="G17">
-        <v>0.0007743724496159895</v>
+        <v>0.0008132041732301191</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.310024328908355</v>
+        <v>2.342319178955734</v>
       </c>
       <c r="L17">
-        <v>0.484526597222569</v>
+        <v>0.3885070498133842</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.407997196107146</v>
+        <v>2.164082006636136</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.3514281936923</v>
+        <v>2.609425921994614</v>
       </c>
       <c r="C18">
-        <v>0.6833344150635128</v>
+        <v>0.149287859869716</v>
       </c>
       <c r="D18">
-        <v>0.0605461279393964</v>
+        <v>0.0727512196022797</v>
       </c>
       <c r="E18">
-        <v>0.02641468972355199</v>
+        <v>0.0588396011338439</v>
       </c>
       <c r="F18">
-        <v>3.20702986546803</v>
+        <v>2.467911573623809</v>
       </c>
       <c r="G18">
-        <v>0.0007767650955508345</v>
+        <v>0.0008149954171041119</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.274355590943571</v>
+        <v>2.281649228676656</v>
       </c>
       <c r="L18">
-        <v>0.4720531046379079</v>
+        <v>0.3790224652460523</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.408672456764364</v>
+        <v>2.159587683644901</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.302066548409641</v>
+        <v>2.586949602367326</v>
       </c>
       <c r="C19">
-        <v>0.6768397894442728</v>
+        <v>0.148005850553389</v>
       </c>
       <c r="D19">
-        <v>0.06061458716260759</v>
+        <v>0.07295563058373844</v>
       </c>
       <c r="E19">
-        <v>0.02633646815565527</v>
+        <v>0.05847690531091843</v>
       </c>
       <c r="F19">
-        <v>3.182792707189549</v>
+        <v>2.453724003613061</v>
       </c>
       <c r="G19">
-        <v>0.0007775763686630273</v>
+        <v>0.0008156034358574695</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.262333578997783</v>
+        <v>2.261179302338064</v>
       </c>
       <c r="L19">
-        <v>0.4678511996972503</v>
+        <v>0.3758238071730347</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.408960565613171</v>
+        <v>2.158117526772088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.525120684943943</v>
+        <v>2.688425316414111</v>
       </c>
       <c r="C20">
-        <v>0.7061750419296686</v>
+        <v>0.153789332654128</v>
       </c>
       <c r="D20">
-        <v>0.06031825704455684</v>
+        <v>0.07203704335926808</v>
       </c>
       <c r="E20">
-        <v>0.02669187397731676</v>
+        <v>0.06011640280386032</v>
       </c>
       <c r="F20">
-        <v>3.292559947752949</v>
+        <v>2.517919095878796</v>
       </c>
       <c r="G20">
-        <v>0.0007739301515833465</v>
+        <v>0.0008128733709523628</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.316652489149774</v>
+        <v>2.353582676460263</v>
       </c>
       <c r="L20">
-        <v>0.486845562805712</v>
+        <v>0.3902685633628522</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.407900953432431</v>
+        <v>2.164938611309893</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.292295812144516</v>
+        <v>3.035614822302477</v>
       </c>
       <c r="C21">
-        <v>0.8068599158271752</v>
+        <v>0.1734999486126156</v>
       </c>
       <c r="D21">
-        <v>0.05954414649226436</v>
+        <v>0.06897324552495654</v>
       </c>
       <c r="E21">
-        <v>0.02794932835609565</v>
+        <v>0.06576158799155962</v>
       </c>
       <c r="F21">
-        <v>3.674679234692888</v>
+        <v>2.740148756398867</v>
       </c>
       <c r="G21">
-        <v>0.0007617438499875175</v>
+        <v>0.0008037999508719684</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.503377028417461</v>
+        <v>2.669490666512615</v>
       </c>
       <c r="L21">
-        <v>0.552301690745935</v>
+        <v>0.4397547052135025</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.408783556707078</v>
+        <v>2.191644707136049</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.80905667728149</v>
+        <v>3.267789749146232</v>
       </c>
       <c r="C22">
-        <v>0.8745367048402954</v>
+        <v>0.1866270822612393</v>
       </c>
       <c r="D22">
-        <v>0.05922473153587049</v>
+        <v>0.06698780208118471</v>
       </c>
       <c r="E22">
-        <v>0.02882340279056095</v>
+        <v>0.06956386843956608</v>
       </c>
       <c r="F22">
-        <v>3.935812231046327</v>
+        <v>2.890817604448046</v>
       </c>
       <c r="G22">
-        <v>0.0007538062925358769</v>
+        <v>0.000797934500824332</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.629081820933095</v>
+        <v>2.880572509427509</v>
       </c>
       <c r="L22">
-        <v>0.5964923647249378</v>
+        <v>0.4728993111962865</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.413064589120552</v>
+        <v>2.212176829099434</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.531697259975999</v>
+        <v>3.143350206095192</v>
       </c>
       <c r="C23">
-        <v>0.8382246837501839</v>
+        <v>0.1795959205601605</v>
       </c>
       <c r="D23">
-        <v>0.05937664592840974</v>
+        <v>0.06804590835523783</v>
       </c>
       <c r="E23">
-        <v>0.02835176351858415</v>
+        <v>0.06752345527083037</v>
       </c>
       <c r="F23">
-        <v>3.795296074899142</v>
+        <v>2.809868564610923</v>
       </c>
       <c r="G23">
-        <v>0.0007580417182230721</v>
+        <v>0.0008010597312106851</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.56161877033577</v>
+        <v>2.767453670472207</v>
       </c>
       <c r="L23">
-        <v>0.5727646472870589</v>
+        <v>0.4551297567757047</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.410413547674551</v>
+        <v>2.200919485227161</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.512809919695712</v>
+        <v>2.68283073440648</v>
       </c>
       <c r="C24">
-        <v>0.704556790967672</v>
+        <v>0.1534707714538968</v>
       </c>
       <c r="D24">
-        <v>0.06033374664848168</v>
+        <v>0.07208740317979689</v>
       </c>
       <c r="E24">
-        <v>0.02667213045778283</v>
+        <v>0.06002588156957245</v>
       </c>
       <c r="F24">
-        <v>3.286485427540555</v>
+        <v>2.514370522605972</v>
       </c>
       <c r="G24">
-        <v>0.0007741300917718496</v>
+        <v>0.0008130228971927667</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.313654911973089</v>
+        <v>2.348489184746199</v>
       </c>
       <c r="L24">
-        <v>0.485796772463388</v>
+        <v>0.3894719592432381</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.407943353735789</v>
+        <v>2.164550390927076</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.466562010291682</v>
+        <v>2.204879951470389</v>
       </c>
       <c r="C25">
-        <v>0.5666263093501698</v>
+        <v>0.1261113148558337</v>
       </c>
       <c r="D25">
-        <v>0.0620360945770706</v>
+        <v>0.07651894602203768</v>
       </c>
       <c r="E25">
-        <v>0.02505357480493409</v>
+        <v>0.0523545960621874</v>
       </c>
       <c r="F25">
-        <v>2.777524593290991</v>
+        <v>2.215492549319904</v>
       </c>
       <c r="G25">
-        <v>0.0007917299552059331</v>
+        <v>0.0008262630055453558</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.058715977947642</v>
+        <v>1.912907001461292</v>
       </c>
       <c r="L25">
-        <v>0.3968723661040769</v>
+        <v>0.3215228845603662</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.418766845814687</v>
+        <v>2.136949464876324</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.865345274680095</v>
+        <v>1.220747317310298</v>
       </c>
       <c r="C2">
-        <v>0.1064454161360828</v>
+        <v>0.1114429994857744</v>
       </c>
       <c r="D2">
-        <v>0.0798451295203062</v>
+        <v>0.05765603833832245</v>
       </c>
       <c r="E2">
-        <v>0.04699610546238731</v>
+        <v>0.06585232052607992</v>
       </c>
       <c r="F2">
-        <v>2.009122972597567</v>
+        <v>0.7897913350550922</v>
       </c>
       <c r="G2">
-        <v>0.0008363598586300872</v>
+        <v>0.7098379516465911</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001273827764161517</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5157934787654312</v>
       </c>
       <c r="K2">
-        <v>1.602788835596613</v>
+        <v>0.5489967082163929</v>
       </c>
       <c r="L2">
-        <v>0.2733962761121091</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.101731796441186</v>
       </c>
       <c r="N2">
-        <v>2.125088679374898</v>
+        <v>0.2905404013760915</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9629789151105861</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.641316148629755</v>
+        <v>1.063333490837209</v>
       </c>
       <c r="C3">
-        <v>0.09331858757910538</v>
+        <v>0.1001204254067574</v>
       </c>
       <c r="D3">
-        <v>0.0821398357733214</v>
+        <v>0.05408850725969216</v>
       </c>
       <c r="E3">
-        <v>0.04351570711505026</v>
+        <v>0.05934734566005595</v>
       </c>
       <c r="F3">
-        <v>1.876333369859381</v>
+        <v>0.7439378997314492</v>
       </c>
       <c r="G3">
-        <v>0.000843445896808294</v>
+        <v>0.6724145984411507</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002572952721552224</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5035068282988959</v>
       </c>
       <c r="K3">
-        <v>1.397731903591733</v>
+        <v>0.5348245358122199</v>
       </c>
       <c r="L3">
-        <v>0.2417213087259142</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.957093832783471</v>
       </c>
       <c r="N3">
-        <v>2.121662903281575</v>
+        <v>0.2552090047104087</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9982782600026354</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.506274738596034</v>
+        <v>0.9669277212291831</v>
       </c>
       <c r="C4">
-        <v>0.08532923791022995</v>
+        <v>0.09317109310011062</v>
       </c>
       <c r="D4">
-        <v>0.08356921116745042</v>
+        <v>0.05187214373751914</v>
       </c>
       <c r="E4">
-        <v>0.04144448076255891</v>
+        <v>0.05535150812832512</v>
       </c>
       <c r="F4">
-        <v>1.797853197283047</v>
+        <v>0.7167543885590817</v>
       </c>
       <c r="G4">
-        <v>0.0008479245258336007</v>
+        <v>0.6503502008679618</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003633022030610222</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4965155062400015</v>
       </c>
       <c r="K4">
-        <v>1.273907614455567</v>
+        <v>0.526711568855518</v>
       </c>
       <c r="L4">
-        <v>0.2226641327520582</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.868498763593351</v>
       </c>
       <c r="N4">
-        <v>2.121638696598609</v>
+        <v>0.2335327817281154</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1.020795094991094</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.451810678933526</v>
+        <v>0.9276911787461302</v>
       </c>
       <c r="C5">
-        <v>0.08208740591838648</v>
+        <v>0.0903378789051601</v>
       </c>
       <c r="D5">
-        <v>0.08415689038181107</v>
+        <v>0.05096236915279206</v>
       </c>
       <c r="E5">
-        <v>0.04061577872829147</v>
+        <v>0.0537217744910965</v>
       </c>
       <c r="F5">
-        <v>1.766580620047165</v>
+        <v>0.7059077036118495</v>
       </c>
       <c r="G5">
-        <v>0.0008497827917087042</v>
+        <v>0.641575802668541</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00412781797230366</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.49379974170796</v>
       </c>
       <c r="K5">
-        <v>1.223911937006562</v>
+        <v>0.5235469416965657</v>
       </c>
       <c r="L5">
-        <v>0.2149867239031948</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.83243632955066</v>
       </c>
       <c r="N5">
-        <v>2.122124875408474</v>
+        <v>0.2247007899545252</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>1.030177597958279</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.442799343154007</v>
+        <v>0.9211786229605821</v>
       </c>
       <c r="C6">
-        <v>0.08154983407536065</v>
+        <v>0.08986729054392839</v>
       </c>
       <c r="D6">
-        <v>0.08425478993823798</v>
+        <v>0.05081090163746538</v>
       </c>
       <c r="E6">
-        <v>0.04047906647824107</v>
+        <v>0.05345104693987324</v>
       </c>
       <c r="F6">
-        <v>1.761428991452618</v>
+        <v>0.7041201841276887</v>
       </c>
       <c r="G6">
-        <v>0.0008500933894806166</v>
+        <v>0.6401315670414363</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004213681415258796</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4933566768607704</v>
       </c>
       <c r="K6">
-        <v>1.215636536323501</v>
+        <v>0.5230298154247883</v>
       </c>
       <c r="L6">
-        <v>0.2137169684070415</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8264502902254947</v>
       </c>
       <c r="N6">
-        <v>2.122234818134473</v>
+        <v>0.2232342308890196</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1.031747891528767</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.505538007195099</v>
+        <v>0.9663983787581856</v>
       </c>
       <c r="C7">
-        <v>0.08528546606295606</v>
+        <v>0.0931328912352285</v>
       </c>
       <c r="D7">
-        <v>0.08357711568316795</v>
+        <v>0.05185990097684368</v>
       </c>
       <c r="E7">
-        <v>0.04143324400727444</v>
+        <v>0.05532953586088851</v>
       </c>
       <c r="F7">
-        <v>1.797428649713567</v>
+        <v>0.7166071889004115</v>
       </c>
       <c r="G7">
-        <v>0.0008479494513576726</v>
+        <v>0.6502310039472974</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003639444817797544</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4964783483217872</v>
       </c>
       <c r="K7">
-        <v>1.273231553455133</v>
+        <v>0.5266683252565869</v>
       </c>
       <c r="L7">
-        <v>0.222560246560306</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8680122643786206</v>
       </c>
       <c r="N7">
-        <v>2.121643278909502</v>
+        <v>0.2334136693912825</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1.020920800491382</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.787537354748792</v>
+        <v>1.166411996146167</v>
       </c>
       <c r="C8">
-        <v>0.1019022218921748</v>
+        <v>0.1075371583248526</v>
       </c>
       <c r="D8">
-        <v>0.08063214309973255</v>
+        <v>0.05643127558863625</v>
       </c>
       <c r="E8">
-        <v>0.04578167130013711</v>
+        <v>0.06360917957459833</v>
       </c>
       <c r="F8">
-        <v>1.962666536995897</v>
+        <v>0.7737714156839957</v>
       </c>
       <c r="G8">
-        <v>0.0008387772646260006</v>
+        <v>0.6967368850645528</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001665357708583448</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5114387842655077</v>
       </c>
       <c r="K8">
-        <v>1.531615854610152</v>
+        <v>0.5439838749595083</v>
       </c>
       <c r="L8">
-        <v>0.2623873453690209</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.051808390498365</v>
       </c>
       <c r="N8">
-        <v>2.123459171108593</v>
+        <v>0.2783525874503141</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9749719624164186</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.363719940771659</v>
+        <v>1.561213170846173</v>
       </c>
       <c r="C9">
-        <v>0.1352389555873685</v>
+        <v>0.1359028975212908</v>
       </c>
       <c r="D9">
-        <v>0.07501645945081137</v>
+        <v>0.06519457521948624</v>
       </c>
       <c r="E9">
-        <v>0.05488941271216419</v>
+        <v>0.07987749212795237</v>
       </c>
       <c r="F9">
-        <v>2.313831950128332</v>
+        <v>0.8942067550940322</v>
       </c>
       <c r="G9">
-        <v>0.0008217526743267566</v>
+        <v>0.7957928010119275</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.503655932950544E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5454356531236613</v>
       </c>
       <c r="K9">
-        <v>2.0577722782065</v>
+        <v>0.5829254387974601</v>
       </c>
       <c r="L9">
-        <v>0.3440805343368112</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.414553974134662</v>
       </c>
       <c r="N9">
-        <v>2.144836782664228</v>
+        <v>0.3667678040567637</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8917999146535038</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.806153074698784</v>
+        <v>1.84077714049269</v>
       </c>
       <c r="C10">
-        <v>0.1604854151481874</v>
+        <v>0.1589776665359608</v>
       </c>
       <c r="D10">
-        <v>0.07098478936223174</v>
+        <v>0.07235627205012918</v>
       </c>
       <c r="E10">
-        <v>0.06202467544066437</v>
+        <v>0.0874410300045696</v>
       </c>
       <c r="F10">
-        <v>2.592837923269713</v>
+        <v>0.9775022391367258</v>
       </c>
       <c r="G10">
-        <v>0.0008097524042298499</v>
+        <v>0.8621007132384193</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0005291602837136367</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5675874553642899</v>
       </c>
       <c r="K10">
-        <v>2.460742657301779</v>
+        <v>0.6062895333651142</v>
       </c>
       <c r="L10">
-        <v>0.407037768535929</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.678489326495423</v>
       </c>
       <c r="N10">
-        <v>2.173427140002417</v>
+        <v>0.4136065208468835</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.8306429805434909</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.012823725436647</v>
+        <v>1.855162875237966</v>
       </c>
       <c r="C11">
-        <v>0.1722092510287041</v>
+        <v>0.1884806755260371</v>
       </c>
       <c r="D11">
-        <v>0.0691707928562888</v>
+        <v>0.08353013656380881</v>
       </c>
       <c r="E11">
-        <v>0.06538944849986095</v>
+        <v>0.05818478441353037</v>
       </c>
       <c r="F11">
-        <v>2.725444128745124</v>
+        <v>0.9204800758870562</v>
       </c>
       <c r="G11">
-        <v>0.000804383930169388</v>
+        <v>0.7899986516460586</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0190965833305583</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5265573034039335</v>
       </c>
       <c r="K11">
-        <v>2.648763245045188</v>
+        <v>0.5439917894569319</v>
       </c>
       <c r="L11">
-        <v>0.4365032816816381</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.755764245080854</v>
       </c>
       <c r="N11">
-        <v>2.189740305347982</v>
+        <v>0.2890919877564926</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7701396052283975</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.091978142303901</v>
+        <v>1.807107143027821</v>
       </c>
       <c r="C12">
-        <v>0.1766902008052966</v>
+        <v>0.2103882361815437</v>
       </c>
       <c r="D12">
-        <v>0.06848677047050167</v>
+        <v>0.0923254440520509</v>
       </c>
       <c r="E12">
-        <v>0.06668277933161804</v>
+        <v>0.04019839089589006</v>
       </c>
       <c r="F12">
-        <v>2.776580856121114</v>
+        <v>0.8552478394066156</v>
       </c>
       <c r="G12">
-        <v>0.0008023622457412778</v>
+        <v>0.7169427143588933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05767683899267695</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4879125799762534</v>
       </c>
       <c r="K12">
-        <v>2.72074489789739</v>
+        <v>0.4889079812219279</v>
       </c>
       <c r="L12">
-        <v>0.4477973013797225</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.764216398319206</v>
       </c>
       <c r="N12">
-        <v>2.196441325595259</v>
+        <v>0.1942713378869314</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7397717918334363</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.074889144063945</v>
+        <v>1.70857238213182</v>
       </c>
       <c r="C13">
-        <v>0.175723186940445</v>
+        <v>0.2274156713069004</v>
       </c>
       <c r="D13">
-        <v>0.068633957418891</v>
+        <v>0.09967718960244554</v>
       </c>
       <c r="E13">
-        <v>0.0664033498175165</v>
+        <v>0.02980565795366008</v>
       </c>
       <c r="F13">
-        <v>2.765524874878821</v>
+        <v>0.7797960668232378</v>
       </c>
       <c r="G13">
-        <v>0.0008027971820536508</v>
+        <v>0.6388284268610249</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132681779756268</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4487590706145994</v>
       </c>
       <c r="K13">
-        <v>2.70520576192672</v>
+        <v>0.4360999161398595</v>
       </c>
       <c r="L13">
-        <v>0.4453585847015376</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.720016360774906</v>
       </c>
       <c r="N13">
-        <v>2.194974032048322</v>
+        <v>0.1172678319171183</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7297455839098723</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.019317209095675</v>
+        <v>1.617377005686023</v>
       </c>
       <c r="C14">
-        <v>0.1725770289235271</v>
+        <v>0.2372059228054866</v>
       </c>
       <c r="D14">
-        <v>0.06911445962465379</v>
+        <v>0.1042020802238213</v>
       </c>
       <c r="E14">
-        <v>0.06549545491334641</v>
+        <v>0.02708901934067565</v>
       </c>
       <c r="F14">
-        <v>2.729632069562825</v>
+        <v>0.7229523987438853</v>
       </c>
       <c r="G14">
-        <v>0.0008042173905115482</v>
+        <v>0.5826255860582421</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625054666778141</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4214555063363576</v>
       </c>
       <c r="K14">
-        <v>2.654668894175416</v>
+        <v>0.4007961167778369</v>
       </c>
       <c r="L14">
-        <v>0.4374296146327197</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.665447906956246</v>
       </c>
       <c r="N14">
-        <v>2.190280814735843</v>
+        <v>0.07459993532342679</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7326537318511637</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.985397694434539</v>
+        <v>1.584735556133438</v>
       </c>
       <c r="C15">
-        <v>0.1706555281234756</v>
+        <v>0.2382551355904923</v>
       </c>
       <c r="D15">
-        <v>0.06940915961189376</v>
+        <v>0.1048589339560735</v>
       </c>
       <c r="E15">
-        <v>0.06494190384859877</v>
+        <v>0.02696476609188725</v>
       </c>
       <c r="F15">
-        <v>2.707770000512085</v>
+        <v>0.7069542851199344</v>
       </c>
       <c r="G15">
-        <v>0.0008050887172251575</v>
+        <v>0.5677123121693057</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749750408110202</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4146472263001613</v>
       </c>
       <c r="K15">
-        <v>2.623818814463448</v>
+        <v>0.3924150274782541</v>
       </c>
       <c r="L15">
-        <v>0.4325911572395</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.641127858123696</v>
       </c>
       <c r="N15">
-        <v>2.187475785768129</v>
+        <v>0.06549895251483662</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7365515487842753</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.792765019561671</v>
+        <v>1.486783761031035</v>
       </c>
       <c r="C16">
-        <v>0.159724626681367</v>
+        <v>0.2240694568975954</v>
       </c>
       <c r="D16">
-        <v>0.07110374232833117</v>
+        <v>0.09995353203519386</v>
       </c>
       <c r="E16">
-        <v>0.06180734403000798</v>
+        <v>0.02614290523301266</v>
       </c>
       <c r="F16">
-        <v>2.584294838715977</v>
+        <v>0.686822544353717</v>
       </c>
       <c r="G16">
-        <v>0.000810104920286692</v>
+        <v>0.5555354354631277</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620986854598669</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.413107617951681</v>
       </c>
       <c r="K16">
-        <v>2.448558545754452</v>
+        <v>0.3933387778264752</v>
       </c>
       <c r="L16">
-        <v>0.4051301849839177</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.536994533594623</v>
       </c>
       <c r="N16">
-        <v>2.17243156930688</v>
+        <v>0.06367149079189716</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7621253846776668</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.676053885171939</v>
+        <v>1.459868068623621</v>
       </c>
       <c r="C17">
-        <v>0.1530848459240559</v>
+        <v>0.2079986917775187</v>
       </c>
       <c r="D17">
-        <v>0.07214844909002238</v>
+        <v>0.09378619715936765</v>
       </c>
       <c r="E17">
-        <v>0.05991625132719136</v>
+        <v>0.02616923020624407</v>
       </c>
       <c r="F17">
-        <v>2.510073495702827</v>
+        <v>0.7015356929468268</v>
       </c>
       <c r="G17">
-        <v>0.0008132041732301191</v>
+        <v>0.5758748167309022</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242874021476865</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4264051212660576</v>
       </c>
       <c r="K17">
-        <v>2.342319178955734</v>
+        <v>0.4125943139904891</v>
       </c>
       <c r="L17">
-        <v>0.3885070498133842</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.486239301689096</v>
       </c>
       <c r="N17">
-        <v>2.164082006636136</v>
+        <v>0.08265203467976079</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7801728927000475</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.609425921994614</v>
+        <v>1.490751305162917</v>
       </c>
       <c r="C18">
-        <v>0.149287859869716</v>
+        <v>0.1892371125181285</v>
       </c>
       <c r="D18">
-        <v>0.0727512196022797</v>
+        <v>0.08619979176317116</v>
       </c>
       <c r="E18">
-        <v>0.0588396011338439</v>
+        <v>0.03098283218257247</v>
       </c>
       <c r="F18">
-        <v>2.467911573623809</v>
+        <v>0.7483548859736402</v>
       </c>
       <c r="G18">
-        <v>0.0008149954171041119</v>
+        <v>0.6276297021369288</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0714507843354113</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4544298118663619</v>
       </c>
       <c r="K18">
-        <v>2.281649228676656</v>
+        <v>0.4511885691352759</v>
       </c>
       <c r="L18">
-        <v>0.3790224652460523</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.475099682259298</v>
       </c>
       <c r="N18">
-        <v>2.159587683644901</v>
+        <v>0.1318515307539982</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7974841455776933</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.586949602367326</v>
+        <v>1.566430625401182</v>
       </c>
       <c r="C19">
-        <v>0.148005850553389</v>
+        <v>0.1707279115681501</v>
       </c>
       <c r="D19">
-        <v>0.07295563058373844</v>
+        <v>0.07851072498527856</v>
       </c>
       <c r="E19">
-        <v>0.05847690531091843</v>
+        <v>0.04539404490493482</v>
       </c>
       <c r="F19">
-        <v>2.453724003613061</v>
+        <v>0.8190598013843271</v>
       </c>
       <c r="G19">
-        <v>0.0008156034358574695</v>
+        <v>0.7033218585397378</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02619566104986859</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.493299124581398</v>
       </c>
       <c r="K19">
-        <v>2.261179302338064</v>
+        <v>0.5050065962839838</v>
       </c>
       <c r="L19">
-        <v>0.3758238071730347</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.496439819759928</v>
       </c>
       <c r="N19">
-        <v>2.158117526772088</v>
+        <v>0.2174039552000835</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.818377928048573</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.688425316414111</v>
+        <v>1.766656980636782</v>
       </c>
       <c r="C20">
-        <v>0.153789332654128</v>
+        <v>0.152973164494469</v>
       </c>
       <c r="D20">
-        <v>0.07203704335926808</v>
+        <v>0.0705143456254973</v>
       </c>
       <c r="E20">
-        <v>0.06011640280386032</v>
+        <v>0.08525731493486788</v>
       </c>
       <c r="F20">
-        <v>2.517919095878796</v>
+        <v>0.9547237859681417</v>
       </c>
       <c r="G20">
-        <v>0.0008128733709523628</v>
+        <v>0.8437654349557846</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002702619901215897</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5612813826955829</v>
       </c>
       <c r="K20">
-        <v>2.353582676460263</v>
+        <v>0.5995333129268587</v>
       </c>
       <c r="L20">
-        <v>0.3902685633628522</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.608798295150535</v>
       </c>
       <c r="N20">
-        <v>2.164938611309893</v>
+        <v>0.4005139001432525</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.8461382646079478</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.035614822302477</v>
+        <v>2.002294721374085</v>
       </c>
       <c r="C21">
-        <v>0.1734999486126156</v>
+        <v>0.1676826324151506</v>
       </c>
       <c r="D21">
-        <v>0.06897324552495654</v>
+        <v>0.07468095882519066</v>
       </c>
       <c r="E21">
-        <v>0.06576158799155962</v>
+        <v>0.09803360294208474</v>
       </c>
       <c r="F21">
-        <v>2.740148756398867</v>
+        <v>1.038151293896618</v>
       </c>
       <c r="G21">
-        <v>0.0008037999508719684</v>
+        <v>0.9155123811301564</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001032117643225083</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5888163354218534</v>
       </c>
       <c r="K21">
-        <v>2.669490666512615</v>
+        <v>0.6322383410697867</v>
       </c>
       <c r="L21">
-        <v>0.4397547052135025</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.819969798746371</v>
       </c>
       <c r="N21">
-        <v>2.191644707136049</v>
+        <v>0.4652786918937295</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.8079863454775698</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.267789749146232</v>
+        <v>2.150468984968313</v>
       </c>
       <c r="C22">
-        <v>0.1866270822612393</v>
+        <v>0.1784067874262689</v>
       </c>
       <c r="D22">
-        <v>0.06698780208118471</v>
+        <v>0.07780989414792572</v>
       </c>
       <c r="E22">
-        <v>0.06956386843956608</v>
+        <v>0.1041415036709381</v>
       </c>
       <c r="F22">
-        <v>2.890817604448046</v>
+        <v>1.08838282147488</v>
       </c>
       <c r="G22">
-        <v>0.000797934500824332</v>
+        <v>0.9575528773013104</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001945691244571002</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6044473350786603</v>
       </c>
       <c r="K22">
-        <v>2.880572509427509</v>
+        <v>0.6499503537568856</v>
       </c>
       <c r="L22">
-        <v>0.4728993111962865</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.95622836471756</v>
       </c>
       <c r="N22">
-        <v>2.212176829099434</v>
+        <v>0.4983322009099851</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7816186300738934</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.143350206095192</v>
+        <v>2.07130904765171</v>
       </c>
       <c r="C23">
-        <v>0.1795959205601605</v>
+        <v>0.1726738919166877</v>
       </c>
       <c r="D23">
-        <v>0.06804590835523783</v>
+        <v>0.07614160272868276</v>
       </c>
       <c r="E23">
-        <v>0.06752345527083037</v>
+        <v>0.100877603515908</v>
       </c>
       <c r="F23">
-        <v>2.809868564610923</v>
+        <v>1.061437987995618</v>
       </c>
       <c r="G23">
-        <v>0.0008010597312106851</v>
+        <v>0.9349866623776819</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001423880534060062</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5960355515774154</v>
       </c>
       <c r="K23">
-        <v>2.767453670472207</v>
+        <v>0.6404215078222606</v>
       </c>
       <c r="L23">
-        <v>0.4551297567757047</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.883429370874694</v>
       </c>
       <c r="N23">
-        <v>2.200919485227161</v>
+        <v>0.4806757989502302</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7956017482264635</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.68283073440648</v>
+        <v>1.773071492891205</v>
       </c>
       <c r="C24">
-        <v>0.1534707714538968</v>
+        <v>0.1511450145954711</v>
       </c>
       <c r="D24">
-        <v>0.07208740317979689</v>
+        <v>0.06978556913350076</v>
       </c>
       <c r="E24">
-        <v>0.06002588156957245</v>
+        <v>0.08859553590694702</v>
       </c>
       <c r="F24">
-        <v>2.514370522605972</v>
+        <v>0.9622443189209235</v>
       </c>
       <c r="G24">
-        <v>0.0008130228971927667</v>
+        <v>0.8522288532145552</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001725181314262692</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5656469842322736</v>
       </c>
       <c r="K24">
-        <v>2.348489184746199</v>
+        <v>0.605935596114783</v>
       </c>
       <c r="L24">
-        <v>0.3894719592432381</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.609250253662452</v>
       </c>
       <c r="N24">
-        <v>2.164550390927076</v>
+        <v>0.4141100399083939</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.8504871519849253</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.204879951470389</v>
+        <v>1.454040480821192</v>
       </c>
       <c r="C25">
-        <v>0.1261113148558337</v>
+        <v>0.1282020726143003</v>
       </c>
       <c r="D25">
-        <v>0.07651894602203768</v>
+        <v>0.06284472674747832</v>
       </c>
       <c r="E25">
-        <v>0.0523545960621874</v>
+        <v>0.07546627148014551</v>
       </c>
       <c r="F25">
-        <v>2.215492549319904</v>
+        <v>0.8606398827357964</v>
       </c>
       <c r="G25">
-        <v>0.0008262630055453558</v>
+        <v>0.7680648144775972</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002083617514696545</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5356995058101006</v>
       </c>
       <c r="K25">
-        <v>1.912907001461292</v>
+        <v>0.5718108516996452</v>
       </c>
       <c r="L25">
-        <v>0.3215228845603662</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.316078364980854</v>
       </c>
       <c r="N25">
-        <v>2.136949464876324</v>
+        <v>0.3427953305561431</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9135225096844053</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.220747317310298</v>
+        <v>1.138815335754344</v>
       </c>
       <c r="C2">
-        <v>0.1114429994857744</v>
+        <v>0.1210676858830055</v>
       </c>
       <c r="D2">
-        <v>0.05765603833832245</v>
+        <v>0.06065143901058434</v>
       </c>
       <c r="E2">
-        <v>0.06585232052607992</v>
+        <v>0.06121070155713326</v>
       </c>
       <c r="F2">
-        <v>0.7897913350550922</v>
+        <v>0.7138793245510158</v>
       </c>
       <c r="G2">
-        <v>0.7098379516465911</v>
+        <v>0.6096895218147154</v>
       </c>
       <c r="H2">
-        <v>0.001273827764161517</v>
+        <v>0.0008420302215741415</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5157934787654312</v>
+        <v>0.49883572870894</v>
       </c>
       <c r="K2">
-        <v>0.5489967082163929</v>
+        <v>0.4749924356661381</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2230043052616786</v>
       </c>
       <c r="M2">
-        <v>1.101731796441186</v>
+        <v>0.1394972235816709</v>
       </c>
       <c r="N2">
-        <v>0.2905404013760915</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.087561019473668</v>
       </c>
       <c r="P2">
-        <v>0.9629789151105861</v>
+        <v>0.3004936016688333</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9021980462885466</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063333490837209</v>
+        <v>0.9957833724888019</v>
       </c>
       <c r="C3">
-        <v>0.1001204254067574</v>
+        <v>0.105894199089775</v>
       </c>
       <c r="D3">
-        <v>0.05408850725969216</v>
+        <v>0.05591030681121367</v>
       </c>
       <c r="E3">
-        <v>0.05934734566005595</v>
+        <v>0.05558634427406517</v>
       </c>
       <c r="F3">
-        <v>0.7439378997314492</v>
+        <v>0.6764398611122218</v>
       </c>
       <c r="G3">
-        <v>0.6724145984411507</v>
+        <v>0.583059349567236</v>
       </c>
       <c r="H3">
-        <v>0.002572952721552224</v>
+        <v>0.001814705088351576</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5035068282988959</v>
+        <v>0.4866082450501636</v>
       </c>
       <c r="K3">
-        <v>0.5348245358122199</v>
+        <v>0.4668402714288042</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2252481640024158</v>
       </c>
       <c r="M3">
-        <v>0.957093832783471</v>
+        <v>0.1322695122922042</v>
       </c>
       <c r="N3">
-        <v>0.2552090047104087</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9464161474751904</v>
       </c>
       <c r="P3">
-        <v>0.9982782600026354</v>
+        <v>0.2646837671547928</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9366657012695985</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9669277212291831</v>
+        <v>0.9078872575354637</v>
       </c>
       <c r="C4">
-        <v>0.09317109310011062</v>
+        <v>0.09664730699459767</v>
       </c>
       <c r="D4">
-        <v>0.05187214373751914</v>
+        <v>0.05298533823948048</v>
       </c>
       <c r="E4">
-        <v>0.05535150812832512</v>
+        <v>0.05212049879948921</v>
       </c>
       <c r="F4">
-        <v>0.7167543885590817</v>
+        <v>0.6541795248152908</v>
       </c>
       <c r="G4">
-        <v>0.6503502008679618</v>
+        <v>0.5675385871798824</v>
       </c>
       <c r="H4">
-        <v>0.003633022030610222</v>
+        <v>0.002624960531345866</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4965155062400015</v>
+        <v>0.4793247636957432</v>
       </c>
       <c r="K4">
-        <v>0.526711568855518</v>
+        <v>0.4622302356378896</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2266613752247046</v>
       </c>
       <c r="M4">
-        <v>0.868498763593351</v>
+        <v>0.1286152882737639</v>
       </c>
       <c r="N4">
-        <v>0.2335327817281154</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8598187877888392</v>
       </c>
       <c r="P4">
-        <v>1.020795094991094</v>
+        <v>0.2427095852150529</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9585962568073594</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9276911787461302</v>
+        <v>0.8720417555665279</v>
       </c>
       <c r="C5">
-        <v>0.0903378789051601</v>
+        <v>0.09289426599502804</v>
       </c>
       <c r="D5">
-        <v>0.05096236915279206</v>
+        <v>0.05178974967405026</v>
       </c>
       <c r="E5">
-        <v>0.0537217744910965</v>
+        <v>0.05070427605280159</v>
       </c>
       <c r="F5">
-        <v>0.7059077036118495</v>
+        <v>0.6452807157005012</v>
       </c>
       <c r="G5">
-        <v>0.641575802668541</v>
+        <v>0.5614105234983953</v>
       </c>
       <c r="H5">
-        <v>0.00412781797230366</v>
+        <v>0.003006187640039792</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.49379974170796</v>
+        <v>0.4764104124194688</v>
       </c>
       <c r="K5">
-        <v>0.5235469416965657</v>
+        <v>0.460446354710264</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2272458533526169</v>
       </c>
       <c r="M5">
-        <v>0.83243632955066</v>
+        <v>0.1273198278337695</v>
       </c>
       <c r="N5">
-        <v>0.2247007899545252</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8245363725581853</v>
       </c>
       <c r="P5">
-        <v>1.030177597958279</v>
+        <v>0.2337557231798115</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9677218407369956</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9211786229605821</v>
+        <v>0.8660877583011768</v>
       </c>
       <c r="C6">
-        <v>0.08986729054392839</v>
+        <v>0.09227192373170823</v>
       </c>
       <c r="D6">
-        <v>0.05081090163746538</v>
+        <v>0.05159099914914833</v>
       </c>
       <c r="E6">
-        <v>0.05345104693987324</v>
+        <v>0.0504688593714846</v>
       </c>
       <c r="F6">
-        <v>0.7041201841276887</v>
+        <v>0.6438131922940258</v>
       </c>
       <c r="G6">
-        <v>0.6401315670414363</v>
+        <v>0.5604045062832199</v>
       </c>
       <c r="H6">
-        <v>0.004213681415258796</v>
+        <v>0.003072500629274333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4933566768607704</v>
+        <v>0.4759296559905692</v>
       </c>
       <c r="K6">
-        <v>0.5230298154247883</v>
+        <v>0.4601557316433791</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2273434143076933</v>
       </c>
       <c r="M6">
-        <v>0.8264502902254947</v>
+        <v>0.1271163189720248</v>
       </c>
       <c r="N6">
-        <v>0.2232342308890196</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.818677879667149</v>
       </c>
       <c r="P6">
-        <v>1.031747891528767</v>
+        <v>0.2322689176469623</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9692484140284492</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9663983787581856</v>
+        <v>0.9067359342024588</v>
       </c>
       <c r="C7">
-        <v>0.0931328912352285</v>
+        <v>0.09629952327962599</v>
       </c>
       <c r="D7">
-        <v>0.05185990097684368</v>
+        <v>0.05307658314958985</v>
       </c>
       <c r="E7">
-        <v>0.05532953586088851</v>
+        <v>0.05214401506095356</v>
       </c>
       <c r="F7">
-        <v>0.7166071889004115</v>
+        <v>0.6527220830391869</v>
       </c>
       <c r="G7">
-        <v>0.6502310039472974</v>
+        <v>0.5705844349047311</v>
       </c>
       <c r="H7">
-        <v>0.003639444817797544</v>
+        <v>0.002634253296477485</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4964783483217872</v>
+        <v>0.4737341667587884</v>
       </c>
       <c r="K7">
-        <v>0.5266683252565869</v>
+        <v>0.4614581363428094</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2263286581205506</v>
       </c>
       <c r="M7">
-        <v>0.8680122643786206</v>
+        <v>0.1283744055252676</v>
       </c>
       <c r="N7">
-        <v>0.2334136693912825</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8581778993372211</v>
       </c>
       <c r="P7">
-        <v>1.020920800491382</v>
+        <v>0.2424938106629213</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.958267795451059</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.166411996146167</v>
+        <v>1.087266878308043</v>
       </c>
       <c r="C8">
-        <v>0.1075371583248526</v>
+        <v>0.1148128287258743</v>
       </c>
       <c r="D8">
-        <v>0.05643127558863625</v>
+        <v>0.05938655409747895</v>
       </c>
       <c r="E8">
-        <v>0.06360917957459833</v>
+        <v>0.05941732708425285</v>
       </c>
       <c r="F8">
-        <v>0.7737714156839957</v>
+        <v>0.6963844415190863</v>
       </c>
       <c r="G8">
-        <v>0.6967368850645528</v>
+        <v>0.6107952445367744</v>
       </c>
       <c r="H8">
-        <v>0.001665357708583448</v>
+        <v>0.001140509450561877</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5114387842655077</v>
+        <v>0.4764046739243355</v>
       </c>
       <c r="K8">
-        <v>0.5439838749595083</v>
+        <v>0.4696417657482179</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2227268963234259</v>
       </c>
       <c r="M8">
-        <v>1.051808390498365</v>
+        <v>0.1360337490597132</v>
       </c>
       <c r="N8">
-        <v>0.2783525874503141</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.034962998768805</v>
       </c>
       <c r="P8">
-        <v>0.9749719624164186</v>
+        <v>0.2878247552279447</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9125522109483093</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.561213170846173</v>
+        <v>1.443546072489056</v>
       </c>
       <c r="C9">
-        <v>0.1359028975212908</v>
+        <v>0.152858547821566</v>
       </c>
       <c r="D9">
-        <v>0.06519457521948624</v>
+        <v>0.07126691156329201</v>
       </c>
       <c r="E9">
-        <v>0.07987749212795237</v>
+        <v>0.073460692795976</v>
       </c>
       <c r="F9">
-        <v>0.8942067550940322</v>
+        <v>0.7931326178067479</v>
       </c>
       <c r="G9">
-        <v>0.7957928010119275</v>
+        <v>0.6853433209687694</v>
       </c>
       <c r="H9">
-        <v>2.503655932950544E-05</v>
+        <v>2.221369235666515E-06</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5454356531236613</v>
+        <v>0.5033232475643672</v>
       </c>
       <c r="K9">
-        <v>0.5829254387974601</v>
+        <v>0.4917652668950652</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2172057171518809</v>
       </c>
       <c r="M9">
-        <v>1.414553974134662</v>
+        <v>0.1582352676643417</v>
       </c>
       <c r="N9">
-        <v>0.3667678040567637</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.386875730180975</v>
       </c>
       <c r="P9">
-        <v>0.8917999146535038</v>
+        <v>0.3772903738990294</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8308299770278413</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.84077714049269</v>
+        <v>1.690874361852337</v>
       </c>
       <c r="C10">
-        <v>0.1589776665359608</v>
+        <v>0.1815162715167276</v>
       </c>
       <c r="D10">
-        <v>0.07235627205012918</v>
+        <v>0.08150104245077472</v>
       </c>
       <c r="E10">
-        <v>0.0874410300045696</v>
+        <v>0.07989393321465599</v>
       </c>
       <c r="F10">
-        <v>0.9775022391367258</v>
+        <v>0.8516879451055814</v>
       </c>
       <c r="G10">
-        <v>0.8621007132384193</v>
+        <v>0.7540474195685078</v>
       </c>
       <c r="H10">
-        <v>0.0005291602837136367</v>
+        <v>0.0005627578077369577</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5675874553642899</v>
+        <v>0.4890851930960309</v>
       </c>
       <c r="K10">
-        <v>0.6062895333651142</v>
+        <v>0.4993722956456708</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.209404775465341</v>
       </c>
       <c r="M10">
-        <v>1.678489326495423</v>
+        <v>0.1742967451436215</v>
       </c>
       <c r="N10">
-        <v>0.4136065208468835</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.635195139990856</v>
       </c>
       <c r="P10">
-        <v>0.8306429805434909</v>
+        <v>0.4239598123601667</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7705608612940988</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.855162875237966</v>
+        <v>1.70140994993443</v>
       </c>
       <c r="C11">
-        <v>0.1884806755260371</v>
+        <v>0.2094791523164048</v>
       </c>
       <c r="D11">
-        <v>0.08353013656380881</v>
+        <v>0.09565722274526678</v>
       </c>
       <c r="E11">
-        <v>0.05818478441353037</v>
+        <v>0.0529796853632778</v>
       </c>
       <c r="F11">
-        <v>0.9204800758870562</v>
+        <v>0.786914540993763</v>
       </c>
       <c r="G11">
-        <v>0.7899986516460586</v>
+        <v>0.7311967162768696</v>
       </c>
       <c r="H11">
-        <v>0.0190965833305583</v>
+        <v>0.01909519989661135</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5265573034039335</v>
+        <v>0.399189548372064</v>
       </c>
       <c r="K11">
-        <v>0.5439917894569319</v>
+        <v>0.4399332083635699</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1839424604318189</v>
       </c>
       <c r="M11">
-        <v>1.755764245080854</v>
+        <v>0.1564776471267564</v>
       </c>
       <c r="N11">
-        <v>0.2890919877564926</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.69663235194804</v>
       </c>
       <c r="P11">
-        <v>0.7701396052283975</v>
+        <v>0.2962112811369337</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7275026782059897</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.807107143027821</v>
+        <v>1.659717762580243</v>
       </c>
       <c r="C12">
-        <v>0.2103882361815437</v>
+        <v>0.2293482332595858</v>
       </c>
       <c r="D12">
-        <v>0.0923254440520509</v>
+        <v>0.105911569332676</v>
       </c>
       <c r="E12">
-        <v>0.04019839089589006</v>
+        <v>0.03668538830189938</v>
       </c>
       <c r="F12">
-        <v>0.8552478394066156</v>
+        <v>0.725669605169827</v>
       </c>
       <c r="G12">
-        <v>0.7169427143588933</v>
+        <v>0.6852148719709277</v>
       </c>
       <c r="H12">
-        <v>0.05767683899267695</v>
+        <v>0.05767083213434887</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4879125799762534</v>
+        <v>0.3498759080085208</v>
       </c>
       <c r="K12">
-        <v>0.4889079812219279</v>
+        <v>0.3934061652991545</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1664693347997286</v>
       </c>
       <c r="M12">
-        <v>1.764216398319206</v>
+        <v>0.1394792462054788</v>
       </c>
       <c r="N12">
-        <v>0.1942713378869314</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.699518216815676</v>
       </c>
       <c r="P12">
-        <v>0.7397717918334363</v>
+        <v>0.1993733033818117</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7130264762210174</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.70857238213182</v>
+        <v>1.577296201253887</v>
       </c>
       <c r="C13">
-        <v>0.2274156713069004</v>
+        <v>0.2450756423885565</v>
       </c>
       <c r="D13">
-        <v>0.09967718960244554</v>
+        <v>0.1130261659236353</v>
       </c>
       <c r="E13">
-        <v>0.02980565795366008</v>
+        <v>0.02768054552890176</v>
       </c>
       <c r="F13">
-        <v>0.7797960668232378</v>
+        <v>0.6656677214905358</v>
       </c>
       <c r="G13">
-        <v>0.6388284268610249</v>
+        <v>0.612077428116379</v>
       </c>
       <c r="H13">
-        <v>0.1132681779756268</v>
+        <v>0.1132750583106059</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4487590706145994</v>
+        <v>0.3305665343031379</v>
       </c>
       <c r="K13">
-        <v>0.4360999161398595</v>
+        <v>0.3545832642057789</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.153568098973544</v>
       </c>
       <c r="M13">
-        <v>1.720016360774906</v>
+        <v>0.122890788646945</v>
       </c>
       <c r="N13">
-        <v>0.1172678319171183</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.660550014669496</v>
       </c>
       <c r="P13">
-        <v>0.7297455839098723</v>
+        <v>0.1210980003115836</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7164076615270343</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.617377005686023</v>
+        <v>1.501404295200587</v>
       </c>
       <c r="C14">
-        <v>0.2372059228054866</v>
+        <v>0.2543583565710037</v>
       </c>
       <c r="D14">
-        <v>0.1042020802238213</v>
+        <v>0.11653252680847</v>
       </c>
       <c r="E14">
-        <v>0.02708901934067565</v>
+        <v>0.0258543215848408</v>
       </c>
       <c r="F14">
-        <v>0.7229523987438853</v>
+        <v>0.624003494893536</v>
       </c>
       <c r="G14">
-        <v>0.5826255860582421</v>
+        <v>0.5510518404934572</v>
       </c>
       <c r="H14">
-        <v>0.1625054666778141</v>
+        <v>0.1625187174536364</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4214555063363576</v>
+        <v>0.3279487077134391</v>
       </c>
       <c r="K14">
-        <v>0.4007961167778369</v>
+        <v>0.3307716775815379</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1463165818714636</v>
       </c>
       <c r="M14">
-        <v>1.665447906956246</v>
+        <v>0.1116780290763018</v>
       </c>
       <c r="N14">
-        <v>0.07459993532342679</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.614266828090564</v>
       </c>
       <c r="P14">
-        <v>0.7326537318511637</v>
+        <v>0.07777018700650018</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7263018655499387</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.584735556133438</v>
+        <v>1.474301168585441</v>
       </c>
       <c r="C15">
-        <v>0.2382551355904923</v>
+        <v>0.2555036858073407</v>
       </c>
       <c r="D15">
-        <v>0.1048589339560735</v>
+        <v>0.116585036414925</v>
       </c>
       <c r="E15">
-        <v>0.02696476609188725</v>
+        <v>0.0259600608809798</v>
       </c>
       <c r="F15">
-        <v>0.7069542851199344</v>
+        <v>0.6136323854473318</v>
       </c>
       <c r="G15">
-        <v>0.5677123121693057</v>
+        <v>0.5317500501609089</v>
       </c>
       <c r="H15">
-        <v>0.1749750408110202</v>
+        <v>0.1749879635615343</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4146472263001613</v>
+        <v>0.3318642012322286</v>
       </c>
       <c r="K15">
-        <v>0.3924150274782541</v>
+        <v>0.3260134878883143</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1451694029503443</v>
       </c>
       <c r="M15">
-        <v>1.641127858123696</v>
+        <v>0.1089475096546373</v>
       </c>
       <c r="N15">
-        <v>0.06549895251483662</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.593950235433283</v>
       </c>
       <c r="P15">
-        <v>0.7365515487842753</v>
+        <v>0.06857510210424067</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7310262166913191</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.486783761031035</v>
+        <v>1.392370353256382</v>
       </c>
       <c r="C16">
-        <v>0.2240694568975954</v>
+        <v>0.242838757736763</v>
       </c>
       <c r="D16">
-        <v>0.09995353203519386</v>
+        <v>0.108791920532056</v>
       </c>
       <c r="E16">
-        <v>0.02614290523301266</v>
+        <v>0.02530821177049569</v>
       </c>
       <c r="F16">
-        <v>0.686822544353717</v>
+        <v>0.6103860717422194</v>
       </c>
       <c r="G16">
-        <v>0.5555354354631277</v>
+        <v>0.4934806018199538</v>
       </c>
       <c r="H16">
-        <v>0.1620986854598669</v>
+        <v>0.1620794931510403</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.413107617951681</v>
+        <v>0.3730447770098664</v>
       </c>
       <c r="K16">
-        <v>0.3933387778264752</v>
+        <v>0.3346293248748928</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1508432828624784</v>
       </c>
       <c r="M16">
-        <v>1.536994533594623</v>
+        <v>0.1082813608581361</v>
       </c>
       <c r="N16">
-        <v>0.06367149079189716</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.506430244940987</v>
       </c>
       <c r="P16">
-        <v>0.7621253846776668</v>
+        <v>0.06733887416996609</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7505505710870324</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.459868068623621</v>
+        <v>1.368741417853641</v>
       </c>
       <c r="C17">
-        <v>0.2079986917775187</v>
+        <v>0.2274195959595318</v>
       </c>
       <c r="D17">
-        <v>0.09378619715936765</v>
+        <v>0.1013440587537033</v>
       </c>
       <c r="E17">
-        <v>0.02616923020624407</v>
+        <v>0.02490839140938778</v>
       </c>
       <c r="F17">
-        <v>0.7015356929468268</v>
+        <v>0.628805345899103</v>
       </c>
       <c r="G17">
-        <v>0.5758748167309022</v>
+        <v>0.4994536103626359</v>
       </c>
       <c r="H17">
-        <v>0.1242874021476865</v>
+        <v>0.1242333955377717</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4264051212660576</v>
+        <v>0.4034979621087587</v>
       </c>
       <c r="K17">
-        <v>0.4125943139904891</v>
+        <v>0.3535172076488564</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1593162319695907</v>
       </c>
       <c r="M17">
-        <v>1.486239301689096</v>
+        <v>0.113276213660388</v>
       </c>
       <c r="N17">
-        <v>0.08265203467976079</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.462081549519382</v>
       </c>
       <c r="P17">
-        <v>0.7801728927000475</v>
+        <v>0.08717987109062619</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7618984948830736</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.490751305162917</v>
+        <v>1.393953771422844</v>
       </c>
       <c r="C18">
-        <v>0.1892371125181285</v>
+        <v>0.2093250630832841</v>
       </c>
       <c r="D18">
-        <v>0.08619979176317116</v>
+        <v>0.09327457892790392</v>
       </c>
       <c r="E18">
-        <v>0.03098283218257247</v>
+        <v>0.028627828162616</v>
       </c>
       <c r="F18">
-        <v>0.7483548859736402</v>
+        <v>0.6709979442826466</v>
       </c>
       <c r="G18">
-        <v>0.6276297021369288</v>
+        <v>0.5379733764455068</v>
       </c>
       <c r="H18">
-        <v>0.0714507843354113</v>
+        <v>0.0713912581561118</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4544298118663619</v>
+        <v>0.4356757905309507</v>
       </c>
       <c r="K18">
-        <v>0.4511885691352759</v>
+        <v>0.3857830196885388</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1721769545288616</v>
       </c>
       <c r="M18">
-        <v>1.475099682259298</v>
+        <v>0.1243622719984359</v>
       </c>
       <c r="N18">
-        <v>0.1318515307539982</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.452212329573456</v>
       </c>
       <c r="P18">
-        <v>0.7974841455776933</v>
+        <v>0.1377760639905574</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7702524902417514</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.566430625401182</v>
+        <v>1.457577905480605</v>
       </c>
       <c r="C19">
-        <v>0.1707279115681501</v>
+        <v>0.1915516922216085</v>
       </c>
       <c r="D19">
-        <v>0.07851072498527856</v>
+        <v>0.08552322158067938</v>
       </c>
       <c r="E19">
-        <v>0.04539404490493482</v>
+        <v>0.04132290788222015</v>
       </c>
       <c r="F19">
-        <v>0.8190598013843271</v>
+        <v>0.7313456944419201</v>
       </c>
       <c r="G19">
-        <v>0.7033218585397378</v>
+        <v>0.5993354603483425</v>
       </c>
       <c r="H19">
-        <v>0.02619566104986859</v>
+        <v>0.02616846014582563</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.493299124581398</v>
+        <v>0.470931561973984</v>
       </c>
       <c r="K19">
-        <v>0.5050065962839838</v>
+        <v>0.4287961163379777</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.188461038620229</v>
       </c>
       <c r="M19">
-        <v>1.496439819759928</v>
+        <v>0.1404299145348347</v>
       </c>
       <c r="N19">
-        <v>0.2174039552000835</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.471736188967498</v>
       </c>
       <c r="P19">
-        <v>0.818377928048573</v>
+        <v>0.2252102636331443</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7796162207625698</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.766656980636782</v>
+        <v>1.627930494205884</v>
       </c>
       <c r="C20">
-        <v>0.152973164494469</v>
+        <v>0.1751695818510797</v>
       </c>
       <c r="D20">
-        <v>0.0705143456254973</v>
+        <v>0.07841702521251648</v>
       </c>
       <c r="E20">
-        <v>0.08525731493486788</v>
+        <v>0.07786717161297219</v>
       </c>
       <c r="F20">
-        <v>0.9547237859681417</v>
+        <v>0.840343261034235</v>
       </c>
       <c r="G20">
-        <v>0.8437654349557846</v>
+        <v>0.7236277994089875</v>
       </c>
       <c r="H20">
-        <v>0.0002702619901215897</v>
+        <v>0.0003149227657823772</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5612813826955829</v>
+        <v>0.5111345320467819</v>
       </c>
       <c r="K20">
-        <v>0.5995333129268587</v>
+        <v>0.4994802743547453</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.212217561200017</v>
       </c>
       <c r="M20">
-        <v>1.608798295150535</v>
+        <v>0.1707327571276736</v>
       </c>
       <c r="N20">
-        <v>0.4005139001432525</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.574055984269251</v>
       </c>
       <c r="P20">
-        <v>0.8461382646079478</v>
+        <v>0.4112487197495085</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7870471025600256</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.002294721374085</v>
+        <v>1.82160759618111</v>
       </c>
       <c r="C21">
-        <v>0.1676826324151506</v>
+        <v>0.1883244699396869</v>
       </c>
       <c r="D21">
-        <v>0.07468095882519066</v>
+        <v>0.08724239711445136</v>
       </c>
       <c r="E21">
-        <v>0.09803360294208474</v>
+        <v>0.09014218335227753</v>
       </c>
       <c r="F21">
-        <v>1.038151293896618</v>
+        <v>0.8760597516354238</v>
       </c>
       <c r="G21">
-        <v>0.9155123811301564</v>
+        <v>0.8577959474940116</v>
       </c>
       <c r="H21">
-        <v>0.001032117643225083</v>
+        <v>0.0009692672865180274</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5888163354218534</v>
+        <v>0.4172519684295821</v>
       </c>
       <c r="K21">
-        <v>0.6322383410697867</v>
+        <v>0.5030275495395244</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2054281710589692</v>
       </c>
       <c r="M21">
-        <v>1.819969798746371</v>
+        <v>0.1829611481857967</v>
       </c>
       <c r="N21">
-        <v>0.4652786918937295</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.749002640540112</v>
       </c>
       <c r="P21">
-        <v>0.8079863454775698</v>
+        <v>0.4744377225167966</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7403835772790366</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.150468984968313</v>
+        <v>1.941596561183701</v>
       </c>
       <c r="C22">
-        <v>0.1784067874262689</v>
+        <v>0.1975804862350969</v>
       </c>
       <c r="D22">
-        <v>0.07780989414792572</v>
+        <v>0.09374119812785153</v>
       </c>
       <c r="E22">
-        <v>0.1041415036709381</v>
+        <v>0.09618597655488159</v>
       </c>
       <c r="F22">
-        <v>1.08838282147488</v>
+        <v>0.8934838937744161</v>
       </c>
       <c r="G22">
-        <v>0.9575528773013104</v>
+        <v>0.9505926205366677</v>
       </c>
       <c r="H22">
-        <v>0.001945691244571002</v>
+        <v>0.001715371158844459</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6044473350786603</v>
+        <v>0.3573329930738822</v>
       </c>
       <c r="K22">
-        <v>0.6499503537568856</v>
+        <v>0.5012871615241892</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1996573711384215</v>
       </c>
       <c r="M22">
-        <v>1.95622836471756</v>
+        <v>0.1896869320778407</v>
       </c>
       <c r="N22">
-        <v>0.4983322009099851</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.859254981048906</v>
       </c>
       <c r="P22">
-        <v>0.7816186300738934</v>
+        <v>0.506099018371529</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7096459054661324</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.07130904765171</v>
+        <v>1.879418007046269</v>
       </c>
       <c r="C23">
-        <v>0.1726738919166877</v>
+        <v>0.1934515539311832</v>
       </c>
       <c r="D23">
-        <v>0.07614160272868276</v>
+        <v>0.08993001255458211</v>
       </c>
       <c r="E23">
-        <v>0.100877603515908</v>
+        <v>0.09282494571968058</v>
       </c>
       <c r="F23">
-        <v>1.061437987995618</v>
+        <v>0.8876279999708032</v>
       </c>
       <c r="G23">
-        <v>0.9349866623776819</v>
+        <v>0.8912075873848408</v>
       </c>
       <c r="H23">
-        <v>0.001423880534060062</v>
+        <v>0.00129735548871146</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5960355515774154</v>
+        <v>0.3992759480537416</v>
       </c>
       <c r="K23">
-        <v>0.6404215078222606</v>
+        <v>0.5040705547463133</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2033569423882184</v>
       </c>
       <c r="M23">
-        <v>1.883429370874694</v>
+        <v>0.1868338909589653</v>
       </c>
       <c r="N23">
-        <v>0.4806757989502302</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.803645021295893</v>
       </c>
       <c r="P23">
-        <v>0.7956017482264635</v>
+        <v>0.4894514955824434</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7266527695423228</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.773071492891205</v>
+        <v>1.633262360661064</v>
       </c>
       <c r="C24">
-        <v>0.1511450145954711</v>
+        <v>0.1733281986311539</v>
       </c>
       <c r="D24">
-        <v>0.06978556913350076</v>
+        <v>0.07762108417299629</v>
       </c>
       <c r="E24">
-        <v>0.08859553590694702</v>
+        <v>0.08096854599961745</v>
       </c>
       <c r="F24">
-        <v>0.9622443189209235</v>
+        <v>0.8469234414434794</v>
       </c>
       <c r="G24">
-        <v>0.8522288532145552</v>
+        <v>0.7300578288791826</v>
       </c>
       <c r="H24">
-        <v>0.0001725181314262692</v>
+        <v>0.0002194389921654771</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5656469842322736</v>
+        <v>0.5157811704644644</v>
       </c>
       <c r="K24">
-        <v>0.605935596114783</v>
+        <v>0.5047132126538258</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2142657409904878</v>
       </c>
       <c r="M24">
-        <v>1.609250253662452</v>
+        <v>0.1726068983109563</v>
       </c>
       <c r="N24">
-        <v>0.4141100399083939</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.574529319479723</v>
       </c>
       <c r="P24">
-        <v>0.8504871519849253</v>
+        <v>0.4250912084350205</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7898197630490564</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.454040480821192</v>
+        <v>1.34809069817598</v>
       </c>
       <c r="C25">
-        <v>0.1282020726143003</v>
+        <v>0.1429199226388249</v>
       </c>
       <c r="D25">
-        <v>0.06284472674747832</v>
+        <v>0.06790019665247371</v>
       </c>
       <c r="E25">
-        <v>0.07546627148014551</v>
+        <v>0.06960050206480162</v>
       </c>
       <c r="F25">
-        <v>0.8606398827357964</v>
+        <v>0.7681118869258015</v>
       </c>
       <c r="G25">
-        <v>0.7680648144775972</v>
+        <v>0.6597975830507607</v>
       </c>
       <c r="H25">
-        <v>0.0002083617514696545</v>
+        <v>9.866806763980662E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5356995058101006</v>
+        <v>0.50350915905112</v>
       </c>
       <c r="K25">
-        <v>0.5718108516996452</v>
+        <v>0.4864295293341243</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2190721919276619</v>
       </c>
       <c r="M25">
-        <v>1.316078364980854</v>
+        <v>0.1519003376290549</v>
       </c>
       <c r="N25">
-        <v>0.3427953305561431</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.293192696140011</v>
       </c>
       <c r="P25">
-        <v>0.9135225096844053</v>
+        <v>0.3531820783488939</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8527637328253466</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
